--- a/data/georgia_census/shida-qartli/kaspi/average_wages.xlsx
+++ b/data/georgia_census/shida-qartli/kaspi/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD38DC7C-B355-40ED-8BEE-6267015F54D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFF938D0-9422-4089-9068-B6BE51834411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B823ABDF-DC7F-4B77-9248-B068217C5570}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E665634-BE3C-4310-8771-AD6C59A0A2EE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CC8827-4CC6-44B6-A20E-622A15CB0ABC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B6F2A5-5A13-47C8-ABB3-FBD4B0C39171}"/>
 </file>